--- a/document/网站材料/卓越班获奖统计.xlsx
+++ b/document/网站材料/卓越班获奖统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19820" windowHeight="8360" activeTab="3"/>
+    <workbookView windowWidth="20400" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="09级卓越班获奖情况" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 赵静、李赵洁</t>
   </si>
   <si>
-    <t>第三节中国大学生服务外包创新创业</t>
+    <t>第三届中国大学生服务外包创新创业</t>
   </si>
   <si>
     <t>严松</t>
@@ -119,9 +119,7 @@
     <t>蔺涛涛</t>
   </si>
   <si>
-    <t xml:space="preserve">在2011年第二届、网络、自动化国际会议上发表论文
-《CONSTRUCTION AND CAPABLITY ANAL YSIS OF A AMALL
- SCALE CLUSTER SYSTEM FOR CFD》论文进入ASME DigitalLibrary数据库，并被EI Compendex 和ISTP检索
+    <t xml:space="preserve">在2011年第二届、网络、自动化国际会议上发表论文《CONSTRUCTION AND CAPABLITY ANAL YSIS OF A AMALL SCALE CLUSTER SYSTEM FOR CFD》论文进入ASME DigitalLibrary数据库，并被EI Compendex 和ISTP检索
 </t>
   </si>
   <si>
@@ -205,7 +203,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>第四届</t>
@@ -214,7 +211,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
         <charset val="134"/>
       </rPr>
       <t>“</t>
@@ -223,7 +219,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>蓝桥杯</t>
@@ -232,7 +227,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
         <charset val="134"/>
       </rPr>
       <t>”</t>
@@ -241,7 +235,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>全国软件专业人才设计个人赛预赛（省赛）</t>
@@ -269,7 +262,6 @@
         <i/>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>罗欢</t>
@@ -278,7 +270,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -289,7 +280,6 @@
         <i/>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>雷勇</t>
@@ -300,7 +290,6 @@
         <i/>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -311,7 +300,6 @@
         <i/>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>王远</t>
@@ -322,7 +310,6 @@
         <i/>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -333,7 +320,6 @@
         <i/>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>周贤</t>
@@ -349,7 +335,6 @@
         <i/>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>彭荣贵</t>
@@ -360,7 +345,6 @@
         <i/>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -371,7 +355,6 @@
         <i/>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>杨吉平</t>
@@ -382,7 +365,6 @@
         <i/>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -393,7 +375,6 @@
         <i/>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>王浩</t>
@@ -404,7 +385,6 @@
         <i/>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -415,7 +395,6 @@
         <i/>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>冉君军</t>
@@ -426,7 +405,6 @@
         <i/>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -437,7 +415,6 @@
         <i/>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>毕腾飞</t>
@@ -446,7 +423,6 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -457,7 +433,6 @@
         <i/>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>罗玲</t>
@@ -468,7 +443,6 @@
         <i/>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -479,7 +453,6 @@
         <i/>
         <sz val="10.5"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>王永强</t>
@@ -589,15 +562,20 @@
     <t xml:space="preserve">ACM程序设计月赛三等奖 </t>
   </si>
   <si>
-    <r>
-      <t>2013</t>
-    </r>
     <r>
       <rPr>
         <sz val="10.5"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2013</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>年</t>
@@ -605,6 +583,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>第九届</t>
     </r>
     <r>
@@ -612,7 +596,6 @@
         <sz val="10.5"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ACM</t>
@@ -622,7 +605,6 @@
         <sz val="10.5"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">程序设计大赛三等奖 </t>
@@ -727,7 +709,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>软件12</t>
@@ -737,7 +718,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>02</t>
@@ -850,6 +830,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>2013.4.11        “蕙质兰心，春色撩人”插花比赛优秀干事
 2013.5.19</t>
     </r>
@@ -857,7 +842,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <family val="38"/>
+        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t xml:space="preserve">		</t>
@@ -866,7 +851,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="7"/>
         <charset val="134"/>
       </rPr>
       <t>西南科技大学第九届程序设计大赛三等奖
@@ -876,7 +860,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <family val="38"/>
+        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t xml:space="preserve">			</t>
@@ -885,7 +869,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="7"/>
         <charset val="134"/>
       </rPr>
       <t>优秀团员</t>
@@ -894,7 +877,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <family val="38"/>
+        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t xml:space="preserve">	</t>
@@ -903,7 +886,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="7"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -913,7 +895,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <family val="38"/>
+        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t xml:space="preserve">		</t>
@@ -922,7 +904,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="7"/>
         <charset val="134"/>
       </rPr>
       <t>2013年寒假实践优秀团队</t>
@@ -931,7 +912,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <family val="38"/>
+        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t xml:space="preserve">	</t>
@@ -940,7 +921,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="7"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -952,7 +932,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <family val="38"/>
+        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t xml:space="preserve">		</t>
@@ -961,7 +941,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="7"/>
         <charset val="134"/>
       </rPr>
       <t>“百花齐放，桂馥兰香”插花比赛“优秀组织奖”
@@ -971,7 +950,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <family val="38"/>
+        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t xml:space="preserve">		</t>
@@ -980,7 +959,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="7"/>
         <charset val="134"/>
       </rPr>
       <t>计科学生会3月“明星部长”</t>
@@ -1040,24 +1018,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1065,52 +1036,44 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="7"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="18"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1118,55 +1081,53 @@
       <i/>
       <sz val="10.5"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="仿宋"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="7"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="仿宋"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
-      <family val="38"/>
+      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
@@ -1174,14 +1135,12 @@
       <i/>
       <sz val="10.5"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1434,21 +1393,18 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1457,25 +1413,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1484,22 +1440,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1511,10 +1464,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1529,19 +1482,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="57" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="57" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="57" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1550,34 +1503,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="57" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="57" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
@@ -1609,12 +1562,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1960,8 +1907,8 @@
   <sheetPr/>
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1971,258 +1918,258 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:3">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:3">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:3">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:3">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:3">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:3">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:3">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:3">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:3">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:3">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:3">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:3">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:3">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:3">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:3">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="56" t="s">
+      <c r="C16" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" ht="28.5" spans="1:3">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:3">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="56" t="s">
+      <c r="C18" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:3">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:3">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="56"/>
+      <c r="C20" s="16"/>
     </row>
     <row r="21" ht="14.25" spans="1:3">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="56"/>
+      <c r="C21" s="16"/>
     </row>
     <row r="22" ht="14.25" spans="1:3">
-      <c r="A22" s="56" t="s">
+      <c r="A22" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="56"/>
-    </row>
-    <row r="23" ht="71.25" spans="1:3">
-      <c r="A23" s="56" t="s">
+      <c r="C22" s="16"/>
+    </row>
+    <row r="23" ht="57" spans="1:3">
+      <c r="A23" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="57" t="s">
+      <c r="B23" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="56"/>
+      <c r="C23" s="16"/>
     </row>
     <row r="24" ht="28.5" spans="1:3">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="56"/>
+      <c r="C24" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2247,168 +2194,168 @@
     <col min="3" max="3" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:3">
-      <c r="A1" s="43" t="s">
+    <row r="1" ht="19.5" spans="1:3">
+      <c r="A1" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="43" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="46" t="s">
+    <row r="2" ht="14.25" spans="1:3">
+      <c r="A2" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="46" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="46" t="s">
+    <row r="3" ht="14.25" spans="1:3">
+      <c r="A3" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="47" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="46" t="s">
+    <row r="4" ht="14.25" spans="1:3">
+      <c r="A4" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="47" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="46" t="s">
+    <row r="5" ht="14.25" spans="1:3">
+      <c r="A5" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="47" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="46" t="s">
+    <row r="6" ht="14.25" spans="1:3">
+      <c r="A6" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="47" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="46" t="s">
+    <row r="7" ht="14.25" spans="1:3">
+      <c r="A7" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="47" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="46" t="s">
+    <row r="8" ht="14.25" spans="1:3">
+      <c r="A8" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="47" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="46" t="s">
+    <row r="9" ht="14.25" spans="1:3">
+      <c r="A9" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="47" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="50" t="s">
+    <row r="10" ht="14.25" spans="1:3">
+      <c r="A10" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="50" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="46" t="s">
+    <row r="11" ht="14.25" spans="1:3">
+      <c r="A11" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="46" t="s">
+    <row r="12" ht="14.25" spans="1:3">
+      <c r="A12" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="50" t="s">
+    <row r="13" ht="14.25" spans="1:3">
+      <c r="A13" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="46" t="s">
+    <row r="14" ht="14.25" spans="1:3">
+      <c r="A14" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="50" t="s">
+    <row r="15" ht="14.25" spans="1:3">
+      <c r="A15" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="53" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2430,211 +2377,211 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9.875" style="21" customWidth="1"/>
-    <col min="2" max="2" width="14.375" style="22" customWidth="1"/>
+    <col min="1" max="1" width="9.875" style="19" customWidth="1"/>
+    <col min="2" max="2" width="14.375" style="20" customWidth="1"/>
     <col min="3" max="3" width="67.875" customWidth="1"/>
     <col min="4" max="4" width="14.375" customWidth="1"/>
     <col min="5" max="5" width="51.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.5" spans="1:5">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="25" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="29">
+      <c r="A3" s="27">
         <v>1</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="28">
         <v>41395</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="29" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="29">
+      <c r="A4" s="27">
         <v>2</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="28">
         <v>41395</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="29" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="29">
+      <c r="A5" s="27">
         <v>3</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="28">
         <v>41395</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="31" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="29">
+      <c r="A6" s="27">
         <v>5</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="28">
         <v>41395</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="31" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="29">
+      <c r="A7" s="27">
         <v>6</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="28">
         <v>41395</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="31" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="25">
+      <c r="A8" s="23">
         <v>7</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="32">
         <v>41487</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="29" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="25"/>
-      <c r="B9" s="34">
+      <c r="A9" s="23"/>
+      <c r="B9" s="32">
         <v>41366</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="25" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="25"/>
-      <c r="B10" s="34">
+      <c r="A10" s="23"/>
+      <c r="B10" s="32">
         <v>41397</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="25" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="27"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="25"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="25"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="27"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="25"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="25"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="27"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="25"/>
     </row>
     <row r="14" ht="14.25" spans="3:3">
-      <c r="C14" s="36"/>
+      <c r="C14" s="34"/>
     </row>
     <row r="17" ht="14.25" spans="1:3">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="35" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:3">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="39">
+      <c r="B18" s="37">
         <v>40969</v>
       </c>
       <c r="C18" t="s">
@@ -2642,7 +2589,7 @@
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="39">
+      <c r="B19" s="37">
         <v>41183</v>
       </c>
       <c r="C19" t="s">
@@ -2650,7 +2597,7 @@
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="39">
+      <c r="B20" s="37">
         <v>41548</v>
       </c>
       <c r="C20" t="s">
@@ -2658,15 +2605,15 @@
       </c>
     </row>
     <row r="21" ht="27" spans="2:3">
-      <c r="B21" s="39">
+      <c r="B21" s="37">
         <v>41699</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="18" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="22" spans="2:3">
-      <c r="B22" s="39">
+      <c r="B22" s="37">
         <v>41699</v>
       </c>
       <c r="C22" t="s">
@@ -2674,10 +2621,10 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="22">
+      <c r="B24" s="20">
         <v>2012.05</v>
       </c>
       <c r="C24" t="s">
@@ -2685,7 +2632,7 @@
       </c>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="22">
+      <c r="B25" s="20">
         <v>2012.08</v>
       </c>
       <c r="C25" t="s">
@@ -2693,7 +2640,7 @@
       </c>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="22">
+      <c r="B26" s="20">
         <v>2012.05</v>
       </c>
       <c r="C26" t="s">
@@ -2701,7 +2648,7 @@
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="22">
+      <c r="B27" s="20">
         <v>2012.09</v>
       </c>
       <c r="C27" t="s">
@@ -2709,7 +2656,7 @@
       </c>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="22">
+      <c r="B28" s="20">
         <v>2012.12</v>
       </c>
       <c r="C28" t="s">
@@ -2717,7 +2664,7 @@
       </c>
     </row>
     <row r="29" spans="2:3">
-      <c r="B29" s="22">
+      <c r="B29" s="20">
         <v>2013.05</v>
       </c>
       <c r="C29" t="s">
@@ -2725,7 +2672,7 @@
       </c>
     </row>
     <row r="30" spans="2:3">
-      <c r="B30" s="22">
+      <c r="B30" s="20">
         <v>2013.05</v>
       </c>
       <c r="C30" t="s">
@@ -2733,7 +2680,7 @@
       </c>
     </row>
     <row r="31" spans="2:3">
-      <c r="B31" s="22">
+      <c r="B31" s="20">
         <v>2013.12</v>
       </c>
       <c r="C31" t="s">
@@ -2741,7 +2688,7 @@
       </c>
     </row>
     <row r="32" spans="2:3">
-      <c r="B32" s="22">
+      <c r="B32" s="20">
         <v>2014.03</v>
       </c>
       <c r="C32" t="s">
@@ -2749,7 +2696,7 @@
       </c>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="22">
+      <c r="B33" s="20">
         <v>2014.03</v>
       </c>
       <c r="C33" t="s">
@@ -2757,10 +2704,10 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B35" s="39">
+      <c r="B35" s="37">
         <v>40817</v>
       </c>
       <c r="C35" t="s">
@@ -2768,7 +2715,7 @@
       </c>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="39">
+      <c r="B36" s="37">
         <v>41000</v>
       </c>
       <c r="C36" t="s">
@@ -2776,7 +2723,7 @@
       </c>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="39">
+      <c r="B37" s="37">
         <v>41244</v>
       </c>
       <c r="C37" t="s">
@@ -2784,7 +2731,7 @@
       </c>
     </row>
     <row r="38" spans="2:3">
-      <c r="B38" s="39">
+      <c r="B38" s="37">
         <v>41183</v>
       </c>
       <c r="C38" t="s">
@@ -2792,7 +2739,7 @@
       </c>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="39">
+      <c r="B39" s="37">
         <v>41395</v>
       </c>
       <c r="C39" t="s">
@@ -2800,7 +2747,7 @@
       </c>
     </row>
     <row r="40" spans="2:3">
-      <c r="B40" s="39">
+      <c r="B40" s="37">
         <v>41395</v>
       </c>
       <c r="C40" t="s">
@@ -2808,7 +2755,7 @@
       </c>
     </row>
     <row r="41" spans="2:3">
-      <c r="B41" s="39">
+      <c r="B41" s="37">
         <v>41609</v>
       </c>
       <c r="C41" t="s">
@@ -2816,7 +2763,7 @@
       </c>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="39">
+      <c r="B42" s="37">
         <v>41609</v>
       </c>
       <c r="C42" t="s">
@@ -2824,7 +2771,7 @@
       </c>
     </row>
     <row r="43" spans="2:3">
-      <c r="B43" s="39">
+      <c r="B43" s="37">
         <v>41609</v>
       </c>
       <c r="C43" t="s">
@@ -2832,18 +2779,18 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C45" s="40" t="s">
+      <c r="C45" s="38" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="46" spans="2:3">
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="20" t="s">
         <v>98</v>
       </c>
       <c r="C46" t="s">
@@ -2851,171 +2798,171 @@
       </c>
     </row>
     <row r="47" spans="2:3">
-      <c r="B47" s="40" t="s">
+      <c r="B47" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="40" t="s">
+      <c r="C47" s="38" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="2:4">
-      <c r="B48" s="40" t="s">
+      <c r="B48" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C48" s="40" t="s">
+      <c r="C48" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="D48" s="41"/>
+      <c r="D48" s="39"/>
     </row>
     <row r="49" ht="14.25" spans="4:4">
-      <c r="D49" s="41"/>
+      <c r="D49" s="39"/>
     </row>
     <row r="50" ht="14.25" spans="1:4">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B50" s="42">
+      <c r="B50" s="40">
         <v>40787</v>
       </c>
       <c r="C50" t="s">
         <v>104</v>
       </c>
-      <c r="D50" s="41"/>
+      <c r="D50" s="39"/>
     </row>
     <row r="51" ht="14.25" spans="2:4">
-      <c r="B51" s="39">
+      <c r="B51" s="37">
         <v>40817</v>
       </c>
       <c r="C51" t="s">
         <v>105</v>
       </c>
-      <c r="D51" s="41"/>
+      <c r="D51" s="39"/>
     </row>
     <row r="52" ht="14.25" spans="2:4">
-      <c r="B52" s="39">
+      <c r="B52" s="37">
         <v>41000</v>
       </c>
       <c r="C52" t="s">
         <v>106</v>
       </c>
-      <c r="D52" s="41"/>
+      <c r="D52" s="39"/>
     </row>
     <row r="53" ht="14.25" spans="2:4">
-      <c r="B53" s="39">
+      <c r="B53" s="37">
         <v>41030</v>
       </c>
       <c r="C53" t="s">
         <v>107</v>
       </c>
-      <c r="D53" s="41"/>
+      <c r="D53" s="39"/>
     </row>
     <row r="54" ht="14.25" spans="2:4">
-      <c r="B54" s="39">
+      <c r="B54" s="37">
         <v>41153</v>
       </c>
       <c r="C54" t="s">
         <v>108</v>
       </c>
-      <c r="D54" s="41"/>
+      <c r="D54" s="39"/>
     </row>
     <row r="55" ht="14.25" spans="2:4">
-      <c r="B55" s="39">
+      <c r="B55" s="37">
         <v>41214</v>
       </c>
       <c r="C55" t="s">
         <v>109</v>
       </c>
-      <c r="D55" s="41"/>
+      <c r="D55" s="39"/>
     </row>
     <row r="56" ht="14.25" spans="2:4">
-      <c r="B56" s="39">
+      <c r="B56" s="37">
         <v>41244</v>
       </c>
       <c r="C56" t="s">
         <v>110</v>
       </c>
-      <c r="D56" s="41"/>
+      <c r="D56" s="39"/>
     </row>
     <row r="57" ht="14.25" spans="2:4">
-      <c r="B57" s="39">
+      <c r="B57" s="37">
         <v>41365</v>
       </c>
       <c r="C57" t="s">
         <v>111</v>
       </c>
-      <c r="D57" s="41"/>
+      <c r="D57" s="39"/>
     </row>
     <row r="58" ht="14.25" spans="2:4">
-      <c r="B58" s="39">
+      <c r="B58" s="37">
         <v>41365</v>
       </c>
       <c r="C58" t="s">
         <v>112</v>
       </c>
-      <c r="D58" s="41"/>
+      <c r="D58" s="39"/>
     </row>
     <row r="59" ht="14.25" spans="2:4">
-      <c r="B59" s="39">
+      <c r="B59" s="37">
         <v>41395</v>
       </c>
       <c r="C59" t="s">
         <v>113</v>
       </c>
-      <c r="D59" s="41"/>
+      <c r="D59" s="39"/>
     </row>
     <row r="60" ht="14.25" spans="2:4">
-      <c r="B60" s="39">
+      <c r="B60" s="37">
         <v>41395</v>
       </c>
       <c r="C60" t="s">
         <v>113</v>
       </c>
-      <c r="D60" s="41"/>
+      <c r="D60" s="39"/>
     </row>
     <row r="61" ht="14.25" spans="2:4">
-      <c r="B61" s="39">
+      <c r="B61" s="37">
         <v>41395</v>
       </c>
       <c r="C61" t="s">
         <v>114</v>
       </c>
-      <c r="D61" s="41"/>
+      <c r="D61" s="39"/>
     </row>
     <row r="62" ht="14.25" spans="2:4">
-      <c r="B62" s="39">
+      <c r="B62" s="37">
         <v>41395</v>
       </c>
       <c r="C62" t="s">
         <v>115</v>
       </c>
-      <c r="D62" s="41"/>
+      <c r="D62" s="39"/>
     </row>
     <row r="63" ht="14.25" spans="2:4">
-      <c r="B63" s="39">
+      <c r="B63" s="37">
         <v>41518</v>
       </c>
       <c r="C63" t="s">
         <v>116</v>
       </c>
-      <c r="D63" s="41"/>
+      <c r="D63" s="39"/>
     </row>
     <row r="64" ht="14.25" spans="2:4">
-      <c r="B64" s="39">
+      <c r="B64" s="37">
         <v>41579</v>
       </c>
       <c r="C64" t="s">
         <v>117</v>
       </c>
-      <c r="D64" s="41"/>
+      <c r="D64" s="39"/>
     </row>
     <row r="65" ht="14.25" spans="2:4">
-      <c r="B65" s="39">
+      <c r="B65" s="37">
         <v>41609</v>
       </c>
       <c r="C65" t="s">
         <v>110</v>
       </c>
-      <c r="D65" s="41"/>
+      <c r="D65" s="39"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:E13"/>
@@ -3033,7 +2980,7 @@
   <sheetPr/>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+    <sheetView topLeftCell="A35" workbookViewId="0">
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
@@ -3050,500 +2997,500 @@
       <c r="A1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>20122329</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>20121247</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="3"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>20122435</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="3"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>20111666</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="3"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="15">
         <v>20121248</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="15">
         <v>20122330</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="3"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="15">
         <v>20122436</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="15">
         <v>20121234</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="3"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="15">
         <v>20125085</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="3"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="3"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="3"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="10" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11" t="s">
+      <c r="D19" s="10"/>
+      <c r="E19" s="10" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11" t="s">
+      <c r="D20" s="9"/>
+      <c r="E20" s="10" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:4">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="D26" s="17"/>
+      <c r="D26" s="16"/>
     </row>
     <row r="27" ht="14.25" spans="1:4">
-      <c r="A27" s="17">
+      <c r="A27" s="16">
         <v>1</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="D27" s="17"/>
+      <c r="D27" s="16"/>
     </row>
     <row r="28" ht="75" customHeight="1" spans="1:4">
-      <c r="A28" s="17">
+      <c r="A28" s="16">
         <v>2</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="D28" s="17"/>
+      <c r="D28" s="16"/>
     </row>
     <row r="29" ht="75" customHeight="1" spans="1:4">
-      <c r="A29" s="17">
+      <c r="A29" s="16">
         <v>3</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="D29" s="17"/>
+      <c r="D29" s="16"/>
     </row>
     <row r="30" ht="14.25" spans="1:4">
-      <c r="A30" s="17">
+      <c r="A30" s="16">
         <v>4</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="17"/>
+      <c r="D30" s="16"/>
     </row>
     <row r="31" ht="14.25" spans="1:4">
-      <c r="A31" s="17">
+      <c r="A31" s="16">
         <v>5</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="D31" s="17"/>
+      <c r="D31" s="16"/>
     </row>
     <row r="32" ht="14.25" spans="1:4">
-      <c r="A32" s="17">
+      <c r="A32" s="16">
         <v>6</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="17"/>
+      <c r="D32" s="16"/>
     </row>
     <row r="33" ht="14.25" spans="1:4">
-      <c r="A33" s="17">
+      <c r="A33" s="16">
         <v>7</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="D33" s="17"/>
+      <c r="D33" s="16"/>
     </row>
     <row r="34" ht="85" customHeight="1" spans="1:4">
-      <c r="A34" s="17">
+      <c r="A34" s="16">
         <v>8</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="D34" s="18"/>
+      <c r="D34" s="17"/>
     </row>
     <row r="35" ht="26" customHeight="1" spans="1:4">
-      <c r="A35" s="17">
+      <c r="A35" s="16">
         <v>9</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="D35" s="17"/>
+      <c r="D35" s="16"/>
     </row>
     <row r="36" ht="68" customHeight="1" spans="1:4">
-      <c r="A36" s="17">
+      <c r="A36" s="16">
         <v>10</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="D36" s="18"/>
+      <c r="D36" s="17"/>
     </row>
     <row r="37" ht="14.25" spans="1:4">
-      <c r="A37" s="17">
+      <c r="A37" s="16">
         <v>11</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="D37" s="17"/>
+      <c r="D37" s="16"/>
     </row>
     <row r="38" ht="57" customHeight="1" spans="1:4">
-      <c r="A38" s="17">
+      <c r="A38" s="16">
         <v>12</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="D38" s="17"/>
+      <c r="D38" s="16"/>
     </row>
     <row r="39" ht="50" customHeight="1" spans="1:4">
-      <c r="A39" s="17">
+      <c r="A39" s="16">
         <v>13</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="D39" s="17"/>
+      <c r="D39" s="16"/>
     </row>
     <row r="40" ht="26" customHeight="1" spans="1:4">
-      <c r="A40" s="17">
+      <c r="A40" s="16">
         <v>14</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="D40" s="17"/>
+      <c r="D40" s="16"/>
     </row>
     <row r="41" ht="40.5" spans="1:3">
       <c r="A41">
@@ -3552,7 +3499,7 @@
       <c r="B41" t="s">
         <v>154</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="18" t="s">
         <v>183</v>
       </c>
     </row>
